--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.71324511517123</v>
+        <v>4.816113666666666</v>
       </c>
       <c r="H2">
-        <v>4.71324511517123</v>
+        <v>14.448341</v>
       </c>
       <c r="I2">
-        <v>0.07084398507285977</v>
+        <v>0.06966795763517612</v>
       </c>
       <c r="J2">
-        <v>0.07084398507285977</v>
+        <v>0.08453131766938522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N2">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O2">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P2">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q2">
-        <v>24.31042151472803</v>
+        <v>25.92901844453956</v>
       </c>
       <c r="R2">
-        <v>24.31042151472803</v>
+        <v>233.361166000856</v>
       </c>
       <c r="S2">
-        <v>0.002609025080789797</v>
+        <v>0.002576663533661235</v>
       </c>
       <c r="T2">
-        <v>0.002609025080789797</v>
+        <v>0.003231058224082874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.71324511517123</v>
+        <v>4.816113666666666</v>
       </c>
       <c r="H3">
-        <v>4.71324511517123</v>
+        <v>14.448341</v>
       </c>
       <c r="I3">
-        <v>0.07084398507285977</v>
+        <v>0.06966795763517612</v>
       </c>
       <c r="J3">
-        <v>0.07084398507285977</v>
+        <v>0.08453131766938522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N3">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P3">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q3">
-        <v>155.7158745467881</v>
+        <v>170.3406924314745</v>
       </c>
       <c r="R3">
-        <v>155.7158745467881</v>
+        <v>1533.066231883271</v>
       </c>
       <c r="S3">
-        <v>0.01671162393969839</v>
+        <v>0.01692739165678737</v>
       </c>
       <c r="T3">
-        <v>0.01671162393969839</v>
+        <v>0.02122643772088461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.71324511517123</v>
+        <v>4.816113666666666</v>
       </c>
       <c r="H4">
-        <v>4.71324511517123</v>
+        <v>14.448341</v>
       </c>
       <c r="I4">
-        <v>0.07084398507285977</v>
+        <v>0.06966795763517612</v>
       </c>
       <c r="J4">
-        <v>0.07084398507285977</v>
+        <v>0.08453131766938522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N4">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O4">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P4">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q4">
-        <v>179.9080083291532</v>
+        <v>193.8576759327921</v>
       </c>
       <c r="R4">
-        <v>179.9080083291532</v>
+        <v>1744.719083395129</v>
       </c>
       <c r="S4">
-        <v>0.01930795423194667</v>
+        <v>0.01926436225747429</v>
       </c>
       <c r="T4">
-        <v>0.01930795423194667</v>
+        <v>0.02415692824871078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.71324511517123</v>
+        <v>4.816113666666666</v>
       </c>
       <c r="H5">
-        <v>4.71324511517123</v>
+        <v>14.448341</v>
       </c>
       <c r="I5">
-        <v>0.07084398507285977</v>
+        <v>0.06966795763517612</v>
       </c>
       <c r="J5">
-        <v>0.07084398507285977</v>
+        <v>0.08453131766938522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N5">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O5">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P5">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q5">
-        <v>234.1131466259793</v>
+        <v>242.8063226364062</v>
       </c>
       <c r="R5">
-        <v>234.1131466259793</v>
+        <v>2185.256903727656</v>
       </c>
       <c r="S5">
-        <v>0.0251253180007493</v>
+        <v>0.02412857234136316</v>
       </c>
       <c r="T5">
-        <v>0.0251253180007493</v>
+        <v>0.0302565007345619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.71324511517123</v>
+        <v>4.816113666666666</v>
       </c>
       <c r="H6">
-        <v>4.71324511517123</v>
+        <v>14.448341</v>
       </c>
       <c r="I6">
-        <v>0.07084398507285977</v>
+        <v>0.06966795763517612</v>
       </c>
       <c r="J6">
-        <v>0.07084398507285977</v>
+        <v>0.08453131766938522</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N6">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O6">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P6">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q6">
-        <v>66.06392605871768</v>
+        <v>68.13638950911249</v>
       </c>
       <c r="R6">
-        <v>66.06392605871768</v>
+        <v>408.818337054675</v>
       </c>
       <c r="S6">
-        <v>0.007090063819675623</v>
+        <v>0.006770967845890079</v>
       </c>
       <c r="T6">
-        <v>0.007090063819675623</v>
+        <v>0.005660392741145057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.390143341175</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H7">
-        <v>25.390143341175</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I7">
-        <v>0.3816349228411866</v>
+        <v>0.3964124085955414</v>
       </c>
       <c r="J7">
-        <v>0.3816349228411866</v>
+        <v>0.4809852962038986</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N7">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O7">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P7">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q7">
-        <v>130.9596831610794</v>
+        <v>147.5367586910338</v>
       </c>
       <c r="R7">
-        <v>130.9596831610794</v>
+        <v>1327.830828219304</v>
       </c>
       <c r="S7">
-        <v>0.01405475827445207</v>
+        <v>0.01466127947754309</v>
       </c>
       <c r="T7">
-        <v>0.01405475827445207</v>
+        <v>0.01838480151274621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.390143341175</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H8">
-        <v>25.390143341175</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I8">
-        <v>0.3816349228411866</v>
+        <v>0.3964124085955414</v>
       </c>
       <c r="J8">
-        <v>0.3816349228411866</v>
+        <v>0.4809852962038986</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N8">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P8">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q8">
-        <v>838.8378449729196</v>
+        <v>969.2427689956988</v>
       </c>
       <c r="R8">
-        <v>838.8378449729196</v>
+        <v>8723.18492096129</v>
       </c>
       <c r="S8">
-        <v>0.09002513489632905</v>
+        <v>0.09631727878468892</v>
       </c>
       <c r="T8">
-        <v>0.09002513489632905</v>
+        <v>0.1207789576221277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.390143341175</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H9">
-        <v>25.390143341175</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I9">
-        <v>0.3816349228411866</v>
+        <v>0.3964124085955414</v>
       </c>
       <c r="J9">
-        <v>0.3816349228411866</v>
+        <v>0.4809852962038986</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N9">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O9">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P9">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q9">
-        <v>969.1603148325878</v>
+        <v>1103.054988976035</v>
       </c>
       <c r="R9">
-        <v>969.1603148325878</v>
+        <v>9927.494900784312</v>
       </c>
       <c r="S9">
-        <v>0.1040115066360521</v>
+        <v>0.1096146995227345</v>
       </c>
       <c r="T9">
-        <v>0.1040115066360521</v>
+        <v>0.1374535214809575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.390143341175</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H10">
-        <v>25.390143341175</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I10">
-        <v>0.3816349228411866</v>
+        <v>0.3964124085955414</v>
       </c>
       <c r="J10">
-        <v>0.3816349228411866</v>
+        <v>0.4809852962038986</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N10">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O10">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P10">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q10">
-        <v>1261.162151689025</v>
+        <v>1381.574003971167</v>
       </c>
       <c r="R10">
-        <v>1261.162151689025</v>
+        <v>12434.16603574051</v>
       </c>
       <c r="S10">
-        <v>0.1353495118423209</v>
+        <v>0.1372921756641553</v>
       </c>
       <c r="T10">
-        <v>0.1353495118423209</v>
+        <v>0.1721602403599746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.390143341175</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H11">
-        <v>25.390143341175</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I11">
-        <v>0.3816349228411866</v>
+        <v>0.3964124085955414</v>
       </c>
       <c r="J11">
-        <v>0.3816349228411866</v>
+        <v>0.4809852962038986</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N11">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O11">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P11">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q11">
-        <v>355.8848545585753</v>
+        <v>387.6977479338875</v>
       </c>
       <c r="R11">
-        <v>355.8848545585753</v>
+        <v>2326.186487603325</v>
       </c>
       <c r="S11">
-        <v>0.03819401119203258</v>
+        <v>0.03852697514641969</v>
       </c>
       <c r="T11">
-        <v>0.03819401119203258</v>
+        <v>0.03220777522809262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>36.4265379774064</v>
+        <v>0.3563829999999999</v>
       </c>
       <c r="H12">
-        <v>36.4265379774064</v>
+        <v>1.069149</v>
       </c>
       <c r="I12">
-        <v>0.5475210920859538</v>
+        <v>0.005155292724451264</v>
       </c>
       <c r="J12">
-        <v>0.5475210920859538</v>
+        <v>0.006255152321979772</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N12">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O12">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P12">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q12">
-        <v>187.8842434276467</v>
+        <v>1.918696696109333</v>
       </c>
       <c r="R12">
-        <v>187.8842434276467</v>
+        <v>17.268270264984</v>
       </c>
       <c r="S12">
-        <v>0.02016397383693945</v>
+        <v>0.0001906680663441135</v>
       </c>
       <c r="T12">
-        <v>0.02016397383693945</v>
+        <v>0.0002390919946601469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>36.4265379774064</v>
+        <v>0.3563829999999999</v>
       </c>
       <c r="H13">
-        <v>36.4265379774064</v>
+        <v>1.069149</v>
       </c>
       <c r="I13">
-        <v>0.5475210920859538</v>
+        <v>0.005155292724451264</v>
       </c>
       <c r="J13">
-        <v>0.5475210920859538</v>
+        <v>0.006255152321979772</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N13">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P13">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q13">
-        <v>1203.457507356386</v>
+        <v>12.60487837132433</v>
       </c>
       <c r="R13">
-        <v>1203.457507356386</v>
+        <v>113.443905341919</v>
       </c>
       <c r="S13">
-        <v>0.1291565766745492</v>
+        <v>0.001252593904204127</v>
       </c>
       <c r="T13">
-        <v>0.1291565766745492</v>
+        <v>0.001570714912033572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>36.4265379774064</v>
+        <v>0.3563829999999999</v>
       </c>
       <c r="H14">
-        <v>36.4265379774064</v>
+        <v>1.069149</v>
       </c>
       <c r="I14">
-        <v>0.5475210920859538</v>
+        <v>0.005155292724451264</v>
       </c>
       <c r="J14">
-        <v>0.5475210920859538</v>
+        <v>0.006255152321979772</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N14">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O14">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P14">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q14">
-        <v>1390.427558445231</v>
+        <v>14.34508919507566</v>
       </c>
       <c r="R14">
-        <v>1390.427558445231</v>
+        <v>129.105802755681</v>
       </c>
       <c r="S14">
-        <v>0.1492224382373286</v>
+        <v>0.001425525161900344</v>
       </c>
       <c r="T14">
-        <v>0.1492224382373286</v>
+        <v>0.001787565484520395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>36.4265379774064</v>
+        <v>0.3563829999999999</v>
       </c>
       <c r="H15">
-        <v>36.4265379774064</v>
+        <v>1.069149</v>
       </c>
       <c r="I15">
-        <v>0.5475210920859538</v>
+        <v>0.005155292724451264</v>
       </c>
       <c r="J15">
-        <v>0.5475210920859538</v>
+        <v>0.006255152321979772</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N15">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O15">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P15">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q15">
-        <v>1809.354535610977</v>
+        <v>17.96719339890933</v>
       </c>
       <c r="R15">
-        <v>1809.354535610977</v>
+        <v>161.704740590184</v>
       </c>
       <c r="S15">
-        <v>0.1941822094935661</v>
+        <v>0.001785467202787924</v>
       </c>
       <c r="T15">
-        <v>0.1941822094935661</v>
+        <v>0.002238921929089029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3563829999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.069149</v>
+      </c>
+      <c r="I16">
+        <v>0.005155292724451264</v>
+      </c>
+      <c r="J16">
+        <v>0.006255152321979772</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.1475875</v>
+      </c>
+      <c r="N16">
+        <v>28.295175</v>
+      </c>
+      <c r="O16">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P16">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q16">
+        <v>5.0419596760125</v>
+      </c>
+      <c r="R16">
+        <v>30.251758056075</v>
+      </c>
+      <c r="S16">
+        <v>0.0005010383892147569</v>
+      </c>
+      <c r="T16">
+        <v>0.0004188580016766283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08755866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.262676</v>
+      </c>
+      <c r="I17">
+        <v>0.001266588353623266</v>
+      </c>
+      <c r="J17">
+        <v>0.001536809547900582</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.383805333333334</v>
+      </c>
+      <c r="N17">
+        <v>16.151416</v>
+      </c>
+      <c r="O17">
+        <v>0.03698491560717504</v>
+      </c>
+      <c r="P17">
+        <v>0.03822320902082743</v>
+      </c>
+      <c r="Q17">
+        <v>0.4713988165795556</v>
+      </c>
+      <c r="R17">
+        <v>4.242589349216001</v>
+      </c>
+      <c r="S17">
+        <v>4.684466336778725E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.874179257460723E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08755866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.262676</v>
+      </c>
+      <c r="I18">
+        <v>0.001266588353623266</v>
+      </c>
+      <c r="J18">
+        <v>0.001536809547900582</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N18">
+        <v>106.106731</v>
+      </c>
+      <c r="O18">
+        <v>0.2429724112974505</v>
+      </c>
+      <c r="P18">
+        <v>0.2511073801535239</v>
+      </c>
+      <c r="Q18">
+        <v>3.096854630239556</v>
+      </c>
+      <c r="R18">
+        <v>27.871691672156</v>
+      </c>
+      <c r="S18">
+        <v>0.0003077460264011128</v>
+      </c>
+      <c r="T18">
+        <v>0.0003859042193682365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08755866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.262676</v>
+      </c>
+      <c r="I19">
+        <v>0.001266588353623266</v>
+      </c>
+      <c r="J19">
+        <v>0.001536809547900582</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.25188966666666</v>
+      </c>
+      <c r="N19">
+        <v>120.755669</v>
+      </c>
+      <c r="O19">
+        <v>0.2765168222435087</v>
+      </c>
+      <c r="P19">
+        <v>0.2857748928413986</v>
+      </c>
+      <c r="Q19">
+        <v>3.524401790027111</v>
+      </c>
+      <c r="R19">
+        <v>31.719616110244</v>
+      </c>
+      <c r="S19">
+        <v>0.0003502329866345429</v>
+      </c>
+      <c r="T19">
+        <v>0.0004391815838689269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08755866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.262676</v>
+      </c>
+      <c r="I20">
+        <v>0.001266588353623266</v>
+      </c>
+      <c r="J20">
+        <v>0.001536809547900582</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.41540533333333</v>
+      </c>
+      <c r="N20">
+        <v>151.246216</v>
+      </c>
+      <c r="O20">
+        <v>0.3463367258118153</v>
+      </c>
+      <c r="P20">
+        <v>0.3579324393463219</v>
+      </c>
+      <c r="Q20">
+        <v>4.414305670446223</v>
+      </c>
+      <c r="R20">
+        <v>39.72875103401601</v>
+      </c>
+      <c r="S20">
+        <v>0.0004386660633452595</v>
+      </c>
+      <c r="T20">
+        <v>0.0005500739902907733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08755866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.262676</v>
+      </c>
+      <c r="I21">
+        <v>0.001266588353623266</v>
+      </c>
+      <c r="J21">
+        <v>0.001536809547900582</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.1475875</v>
+      </c>
+      <c r="N21">
+        <v>28.295175</v>
+      </c>
+      <c r="O21">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P21">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q21">
+        <v>1.23874389805</v>
+      </c>
+      <c r="R21">
+        <v>7.4324633883</v>
+      </c>
+      <c r="S21">
+        <v>0.0001230986138745634</v>
+      </c>
+      <c r="T21">
+        <v>0.0001029079617980375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>36.4656755</v>
+      </c>
+      <c r="H22">
+        <v>72.93135100000001</v>
+      </c>
+      <c r="I22">
+        <v>0.527497752691208</v>
+      </c>
+      <c r="J22">
+        <v>0.4266914242568359</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.383805333333334</v>
+      </c>
+      <c r="N22">
+        <v>16.151416</v>
+      </c>
+      <c r="O22">
+        <v>0.03698491560717504</v>
+      </c>
+      <c r="P22">
+        <v>0.03822320902082743</v>
+      </c>
+      <c r="Q22">
+        <v>196.3240982405027</v>
+      </c>
+      <c r="R22">
+        <v>1177.944589443016</v>
+      </c>
+      <c r="S22">
+        <v>0.01950945986625882</v>
+      </c>
+      <c r="T22">
+        <v>0.01630951549676359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>36.4656755</v>
+      </c>
+      <c r="H23">
+        <v>72.93135100000001</v>
+      </c>
+      <c r="I23">
+        <v>0.527497752691208</v>
+      </c>
+      <c r="J23">
+        <v>0.4266914242568359</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N23">
+        <v>106.106731</v>
+      </c>
+      <c r="O23">
+        <v>0.2429724112974505</v>
+      </c>
+      <c r="P23">
+        <v>0.2511073801535239</v>
+      </c>
+      <c r="Q23">
+        <v>1289.75120700393</v>
+      </c>
+      <c r="R23">
+        <v>7738.507242023581</v>
+      </c>
+      <c r="S23">
+        <v>0.128167400925369</v>
+      </c>
+      <c r="T23">
+        <v>0.1071453656791098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>36.4265379774064</v>
-      </c>
-      <c r="H16">
-        <v>36.4265379774064</v>
-      </c>
-      <c r="I16">
-        <v>0.5475210920859538</v>
-      </c>
-      <c r="J16">
-        <v>0.5475210920859538</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.016654013191</v>
-      </c>
-      <c r="N16">
-        <v>14.016654013191</v>
-      </c>
-      <c r="O16">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="P16">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="Q16">
-        <v>510.5781797276677</v>
-      </c>
-      <c r="R16">
-        <v>510.5781797276677</v>
-      </c>
-      <c r="S16">
-        <v>0.05479589384357034</v>
-      </c>
-      <c r="T16">
-        <v>0.05479589384357034</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>36.4656755</v>
+      </c>
+      <c r="H24">
+        <v>72.93135100000001</v>
+      </c>
+      <c r="I24">
+        <v>0.527497752691208</v>
+      </c>
+      <c r="J24">
+        <v>0.4266914242568359</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>40.25188966666666</v>
+      </c>
+      <c r="N24">
+        <v>120.755669</v>
+      </c>
+      <c r="O24">
+        <v>0.2765168222435087</v>
+      </c>
+      <c r="P24">
+        <v>0.2857748928413986</v>
+      </c>
+      <c r="Q24">
+        <v>1467.81234684647</v>
+      </c>
+      <c r="R24">
+        <v>8806.87408107882</v>
+      </c>
+      <c r="S24">
+        <v>0.1458620023147651</v>
+      </c>
+      <c r="T24">
+        <v>0.121937696043341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>36.4656755</v>
+      </c>
+      <c r="H25">
+        <v>72.93135100000001</v>
+      </c>
+      <c r="I25">
+        <v>0.527497752691208</v>
+      </c>
+      <c r="J25">
+        <v>0.4266914242568359</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>50.41540533333333</v>
+      </c>
+      <c r="N25">
+        <v>151.246216</v>
+      </c>
+      <c r="O25">
+        <v>0.3463367258118153</v>
+      </c>
+      <c r="P25">
+        <v>0.3579324393463219</v>
+      </c>
+      <c r="Q25">
+        <v>1838.431811086303</v>
+      </c>
+      <c r="R25">
+        <v>11030.59086651782</v>
+      </c>
+      <c r="S25">
+        <v>0.1826918445401637</v>
+      </c>
+      <c r="T25">
+        <v>0.1527267023324056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.4656755</v>
+      </c>
+      <c r="H26">
+        <v>72.93135100000001</v>
+      </c>
+      <c r="I26">
+        <v>0.527497752691208</v>
+      </c>
+      <c r="J26">
+        <v>0.4266914242568359</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.1475875</v>
+      </c>
+      <c r="N26">
+        <v>28.295175</v>
+      </c>
+      <c r="O26">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P26">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q26">
+        <v>515.9013348828563</v>
+      </c>
+      <c r="R26">
+        <v>2063.605339531425</v>
+      </c>
+      <c r="S26">
+        <v>0.05126704504465149</v>
+      </c>
+      <c r="T26">
+        <v>0.0285721447052158</v>
       </c>
     </row>
   </sheetData>
